--- a/AX/Office WorkSheet.xlsx
+++ b/AX/Office WorkSheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC0C1C6-41B5-4CDE-BA1C-E495DC5CE57E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7803D764-F700-4232-A3C9-BC746EF29856}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="103">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -333,6 +333,12 @@
   </si>
   <si>
     <t>Temp Table</t>
+  </si>
+  <si>
+    <t>Show data from tree</t>
+  </si>
+  <si>
+    <t>Class Of email CUD (With Sir Raheel)</t>
   </si>
 </sst>
 </file>
@@ -732,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1586,7 +1592,7 @@
         <v>94</v>
       </c>
       <c r="D60" s="3">
-        <v>0.375</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="E60" s="3">
         <v>0.23611111111111113</v>
@@ -1600,7 +1606,7 @@
         <v>95</v>
       </c>
       <c r="D61" s="3">
-        <v>0.375</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="E61" s="3">
         <v>0.125</v>
@@ -1628,7 +1634,7 @@
         <v>97</v>
       </c>
       <c r="D63" s="3">
-        <v>0.375</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="E63" s="3">
         <v>0.22916666666666666</v>
@@ -1642,7 +1648,7 @@
         <v>97</v>
       </c>
       <c r="D64" s="3">
-        <v>0.375</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="E64" s="3">
         <v>0.22916666666666666</v>
@@ -1656,7 +1662,7 @@
         <v>98</v>
       </c>
       <c r="D65" s="3">
-        <v>0.375</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="E65" s="3">
         <v>0.22916666666666666</v>
@@ -1670,7 +1676,7 @@
         <v>99</v>
       </c>
       <c r="D66" s="3">
-        <v>0.375</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="E66" s="3">
         <v>0.22916666666666666</v>
@@ -1688,6 +1694,90 @@
       </c>
       <c r="E67" s="3">
         <v>0.27083333333333331</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>43665</v>
+      </c>
+      <c r="B68" t="s">
+        <v>101</v>
+      </c>
+      <c r="D68" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E68" s="3">
+        <v>0.22916666666666666</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>43666</v>
+      </c>
+      <c r="B69" t="s">
+        <v>102</v>
+      </c>
+      <c r="D69" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E69" s="3">
+        <v>0.22916666666666666</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>43668</v>
+      </c>
+      <c r="B70" t="s">
+        <v>102</v>
+      </c>
+      <c r="D70" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>43669</v>
+      </c>
+      <c r="B71" t="s">
+        <v>102</v>
+      </c>
+      <c r="D71" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E71" s="3">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>43670</v>
+      </c>
+      <c r="B72" t="s">
+        <v>102</v>
+      </c>
+      <c r="D72" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E72" s="3">
+        <v>0.31944444444444448</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>43671</v>
+      </c>
+      <c r="B73" t="s">
+        <v>102</v>
+      </c>
+      <c r="D73" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E73" s="3">
+        <v>0.29166666666666669</v>
       </c>
     </row>
   </sheetData>
